--- a/Тест_кейс2_Панов_Александр_241-371.xlsx
+++ b/Тест_кейс2_Панов_Александр_241-371.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5A3A9F-0C71-4A39-928E-EEA66D1A7E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68991034-55AC-48A4-AC00-8C39EA0A3F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" xr2:uid="{93241BDB-884C-48EC-90CA-10D4BDE855B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Наименование:</t>
   </si>
@@ -120,12 +120,6 @@
     <t>Появляется окно с подтверждением регистрации</t>
   </si>
   <si>
-    <t xml:space="preserve"> Появляется окно с предупреждением, что регистрация не удалась</t>
-  </si>
-  <si>
-    <t>Результат отобразился. Появилось окошко с надписью о том, что регистрация не удалась</t>
-  </si>
-  <si>
     <t>Открытие окна приложения и нажатие кнопки "Change" для того, чтобы изменить кнопку "Login" на кнопку "Registration"</t>
   </si>
   <si>
@@ -160,6 +154,42 @@
   </si>
   <si>
     <t>Нажать кнопки "Registration" с введенными логином и паролем существующего пользователя после регистрации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несуществующие данные незарегистрированного пользователя для тестирования регистрации </t>
+  </si>
+  <si>
+    <t>Alesha2012</t>
+  </si>
+  <si>
+    <t>EmPirog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Появляется окно с предупреждением, что регистрация не удалась c указанием причины "Данный пользователь уже зарегистрирован"</t>
+  </si>
+  <si>
+    <t>Результат отобразился. Появилось окошко с надписью о том, что регистрация не удалась без указания причины, почему регистрация не удалась</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать кнопки "Registration" с введенными логином, но без пароля  пользователя </t>
+  </si>
+  <si>
+    <t>Появляется окно с предупреждением, что регистрация не удалась c указанием причины "Невозможно зарегистрировать пользователя, так как неккоректный логин или пароль"</t>
+  </si>
+  <si>
+    <t>Пользователя удалось зарегистрировать без пароля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать кнопки "Registration" с введенными паролем, но без логина  пользователя </t>
+  </si>
+  <si>
+    <t>Появляется окно с предупреждением, что регистрация не удалась c указанием причины "Все поля должны быть заполнены"</t>
+  </si>
+  <si>
+    <t>Появилось окно с предупреждением, что регистрация не удалась c указанием причины "Все поля должны быть заполнены"</t>
+  </si>
+  <si>
+    <t>Нажать кнопки "Registration" без введенного пароля, и без логина  пользователя</t>
   </si>
 </sst>
 </file>
@@ -574,7 +604,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,14 +658,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -691,6 +715,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270E282-3ABD-4417-8733-56710085AF51}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1080,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
+      <c r="A1" s="27"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,14 +1095,14 @@
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="51" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="6"/>
@@ -1074,24 +1113,24 @@
       <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="31"/>
+        <v>1.2</v>
+      </c>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,10 +1145,10 @@
       <c r="G4" s="11">
         <v>45812</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -1119,7 +1158,7 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1131,12 +1170,12 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -1145,7 +1184,7 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
@@ -1159,7 +1198,7 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1212,7 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
@@ -1183,186 +1222,242 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34">
-        <v>5</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="32">
+        <v>8</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="36">
-        <v>5</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D11" s="34">
+        <v>6</v>
+      </c>
+      <c r="E11" s="34">
+        <v>2</v>
+      </c>
+      <c r="F11" s="34">
         <v>0</v>
       </c>
-      <c r="F11" s="36">
-        <v>0</v>
-      </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="197.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>1</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" ht="110.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="C14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" ht="110.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24">
-        <v>2</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="43" t="s">
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24">
+        <v>3</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26">
-        <v>3</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="28" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="149.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24">
+        <v>4</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" ht="149.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
-        <v>4</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="42"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>5</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="B17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="154.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43">
+        <v>6</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="141.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="43">
+        <v>7</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="1:8" ht="118.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="43">
+        <v>8</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="26" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Тест_кейс2_Панов_Александр_241-371.xlsx
+++ b/Тест_кейс2_Панов_Александр_241-371.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68991034-55AC-48A4-AC00-8C39EA0A3F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3C493-2683-46DC-A4AB-6BF455B6AAEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" xr2:uid="{93241BDB-884C-48EC-90CA-10D4BDE855B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Наименование:</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Нажать кнопки "Registration" без введенного пароля, и без логина  пользователя</t>
+  </si>
+  <si>
+    <t>Coder3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,6 +753,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1064,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270E282-3ABD-4417-8733-56710085AF51}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,6 +1468,22 @@
         <v>45</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>

--- a/Тест_кейс2_Панов_Александр_241-371.xlsx
+++ b/Тест_кейс2_Панов_Александр_241-371.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3C493-2683-46DC-A4AB-6BF455B6AAEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F762D-3B61-45C9-904E-96F1655FB165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" xr2:uid="{93241BDB-884C-48EC-90CA-10D4BDE855B1}"/>
   </bookViews>
@@ -610,7 +610,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,9 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -774,6 +771,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1774372</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2281798</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD01CC32-EA9F-4B09-8050-6B24DFFB450D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3668486" y="19165134"/>
+          <a:ext cx="5090312" cy="3623056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4010910</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94587A9-5259-43C3-858D-94CCDA1F473D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487910" y="19093543"/>
+          <a:ext cx="4632347" cy="3570514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270E282-3ABD-4417-8733-56710085AF51}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,7 +1559,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -1477,7 +1567,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
@@ -1492,5 +1582,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Тест_кейс2_Панов_Александр_241-371.xlsx
+++ b/Тест_кейс2_Панов_Александр_241-371.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F762D-3B61-45C9-904E-96F1655FB165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4601B41D-9632-4F0A-A940-D6DB4E5CD815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" xr2:uid="{93241BDB-884C-48EC-90CA-10D4BDE855B1}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{93241BDB-884C-48EC-90CA-10D4BDE855B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-кейс 2 Панов" sheetId="1" r:id="rId1"/>
+    <sheet name="Дефект" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>Наименование:</t>
   </si>
@@ -196,6 +197,113 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Неинформативное сообщение об ошибке при попытке регистрации существующего пользователя уже существующего пользователя</t>
+  </si>
+  <si>
+    <t>№ тест-кейса</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Проект по диспиплице "Технологии и методы программирования"</t>
+  </si>
+  <si>
+    <t>Компонент</t>
+  </si>
+  <si>
+    <t>Окно аутентификации</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Номер версии</t>
+  </si>
+  <si>
+    <t>Важность:</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Приоритет:</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Retest</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Назначен на</t>
+  </si>
+  <si>
+    <t>Панов Александра Владимировича</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>При попытке регистрации уже существующего пользователя система выводит сообщение "Регистрация не удалась", но не указывает причину ("Данный пользователь уже зарегистрирован")
+1.Зарегистрировать нового пользователя ( Login : Alesha2012
+					Password: EmPirog).
+2.Повторить регистрацию с теми же данными.
+3.Проверить текст сообщения об ошибке.
+Ожидаемый результат:
+Сообщение: "Регистрация не удалась. Данный пользователь уже зарегистрирован".
+Фактический результат:
+Сообщение: "Регистрация не удалась" (без указания причины).</t>
+  </si>
+  <si>
+    <t>Вложения</t>
+  </si>
+  <si>
+    <t>screen_defect_auth.jpg</t>
+  </si>
+  <si>
+    <t>Панов Александр Владимирович</t>
   </si>
 </sst>
 </file>
@@ -205,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +385,30 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +421,14 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -598,6 +734,60 @@
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -610,7 +800,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +928,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,6 +961,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -778,22 +1004,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1774372</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6277</xdr:rowOff>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2281798</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>167676</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>164275</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>65854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD01CC32-EA9F-4B09-8050-6B24DFFB450D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E7B479-3E92-471B-A946-FCC3F2B79E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -809,52 +1035,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3668486" y="19165134"/>
-          <a:ext cx="5090312" cy="3623056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4010910</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>446314</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94587A9-5259-43C3-858D-94CCDA1F473D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10487910" y="19093543"/>
-          <a:ext cx="4632347" cy="3570514"/>
+          <a:off x="5306291" y="7772400"/>
+          <a:ext cx="7022275" cy="7228655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270E282-3ABD-4417-8733-56710085AF51}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,11 +1379,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="6"/>
@@ -1215,9 +1397,9 @@
       <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1582,6 +1764,187 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3184C7D3-F7E4-4344-B2F4-34CDE1E7D9D9}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="47">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" ht="131.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="272.39999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:4" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>